--- a/table2.xlsx
+++ b/table2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xlsx-exporter\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xlsx-exporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,9 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
-    <t>id</t>
+    <t>id_1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_2</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_3</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -29,7 +37,7 @@
     "dataType" : "int",
     "minValue" : 1,
     "maxValue" : 99,
-    "idType" : "id"
+    "idType" : "combineid"
 }</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -774,14 +782,12 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="28.25" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
@@ -794,8 +800,12 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -809,21 +819,45 @@
     </row>
     <row r="4" spans="1:10" ht="85.5">
       <c r="A4" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>1</v>
       </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>2</v>
       </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
         <v>3</v>
       </c>
     </row>

--- a/table2.xlsx
+++ b/table2.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21780" windowHeight="10335" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="sheet_2_1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -782,7 +782,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
